--- a/Enrichment.Hubs_RNASeq.xlsx
+++ b/Enrichment.Hubs_RNASeq.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://indiana-my.sharepoint.com/personal/ggrecco_iu_edu1/Documents/HAP_LAP_omics/For manuscript/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://indiana-my.sharepoint.com/personal/bkatwood_iu_edu/Documents/Atwood Lab/Grecco &amp; FME Data/HAP_LAP_omics/For manuscript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="8_{3177E72F-276D-43A7-B288-2B98F828D9D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BFC91801-E8DA-40B0-A142-08DD150FDE9C}"/>
+  <xr:revisionPtr revIDLastSave="120" documentId="8_{3177E72F-276D-43A7-B288-2B98F828D9D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{96119510-E801-4254-9C13-6B289BD5043A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{68EEB2A3-C933-4EC3-A5C3-AD45F8112467}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{68EEB2A3-C933-4EC3-A5C3-AD45F8112467}"/>
   </bookViews>
   <sheets>
-    <sheet name="GO.BioProcess " sheetId="5" r:id="rId1"/>
-    <sheet name="GO.CellComponent" sheetId="4" r:id="rId2"/>
-    <sheet name="GO.MolFunction " sheetId="3" r:id="rId3"/>
-    <sheet name="Hubs" sheetId="8" r:id="rId4"/>
+    <sheet name="Description" sheetId="9" r:id="rId1"/>
+    <sheet name="Hubs" sheetId="8" r:id="rId2"/>
+    <sheet name="GO.BioProcess " sheetId="5" r:id="rId3"/>
+    <sheet name="GO.CellComponent" sheetId="4" r:id="rId4"/>
+    <sheet name="GO.MolFunction " sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1970,19 +1971,26 @@
     <t>ClusteringCoefficient</t>
   </si>
   <si>
-    <t>H2bc21</t>
-  </si>
-  <si>
     <t>Meltf</t>
+  </si>
+  <si>
+    <t>Hist2h2be</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2009,9 +2017,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2027,6 +2037,587 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C75BA524-D9CB-4E75-BB0D-51631806DDEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5476875" cy="6515100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A Multi-Omic Analysis of the Dorsal Striatum in an Animal Model of Divergent Genetic Risk for Alcohol Use Disorder</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Gregory G. Grecco</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="30000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1,2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id=""/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, David L. Haggerty</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="30000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, Emma H. Doud</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="30000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, Brandon M. Fritz</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="30000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, Fuqin Yin</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="30000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,Hunter Hoffman</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="30000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, Amber L. Mosley</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="30000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, Edward Simpson</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="30000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, Yunlong Liu</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="30000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, Anthony J. Baucum II</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="30000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1,5,6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, Brady K. Atwood</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="30000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1,6,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>*</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="30000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Department of Pharmacology and Toxicology, Indiana University School of Medicine, Indianapolis, IN, 46202, USA. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="30000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Indiana University School of Medicine, Medical Scientist Training Program, Indianapolis, IN 46202 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="30000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Department of Biochemistry and Molecular Biology, Indiana University School of Medicine, Indianapolis, Indiana. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="30000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Department of Medical and Molecular Genetics, Indiana University School of Medicine, Indianapolis, Indiana, USA.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="30000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Department of Biology, Indiana University-Purdue University, Indianapolis, Indiana, USA.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="30000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Stark Neurosciences Research Institute, Indiana University School of Medicine, Indianapolis, IN, 46202, USA.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Description</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> of Excel Content: This file contains hub genes and enriched Gene Ontology terms identified in the network of significant differential expressed genes between HAP and LAP mice </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2325,23 +2916,425 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2042D7E5-2FAE-4144-9E62-6E2B2B925A91}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3512BC-1B36-485C-9B17-7AC116261F2F}">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C1" t="s">
+        <v>632</v>
+      </c>
+      <c r="D1" t="s">
+        <v>634</v>
+      </c>
+      <c r="E1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G1" t="s">
+        <v>637</v>
+      </c>
+      <c r="H1" t="s">
+        <v>638</v>
+      </c>
+      <c r="I1" t="s">
+        <v>639</v>
+      </c>
+      <c r="J1" t="s">
+        <v>640</v>
+      </c>
+      <c r="K1" t="s">
+        <v>641</v>
+      </c>
+      <c r="L1" t="s">
+        <v>642</v>
+      </c>
+      <c r="M1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>45</v>
+      </c>
+      <c r="D2">
+        <v>0.32412999999999997</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>18.361000000000001</v>
+      </c>
+      <c r="G2">
+        <v>28</v>
+      </c>
+      <c r="H2">
+        <v>3.0769999999999999E-2</v>
+      </c>
+      <c r="I2">
+        <v>23.5</v>
+      </c>
+      <c r="J2">
+        <v>0.17777999999999999</v>
+      </c>
+      <c r="K2">
+        <v>576.83333000000005</v>
+      </c>
+      <c r="L2">
+        <v>682</v>
+      </c>
+      <c r="M2">
+        <v>7.3679999999999995E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <v>0.38895999999999997</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>17.359000000000002</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>3.0769999999999999E-2</v>
+      </c>
+      <c r="I3">
+        <v>18.5</v>
+      </c>
+      <c r="J3">
+        <v>0.15498999999999999</v>
+      </c>
+      <c r="K3">
+        <v>263.83332999999999</v>
+      </c>
+      <c r="L3">
+        <v>316</v>
+      </c>
+      <c r="M3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>128</v>
+      </c>
+      <c r="D4">
+        <v>0.64825999999999995</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>17.427</v>
+      </c>
+      <c r="G4">
+        <v>35</v>
+      </c>
+      <c r="H4">
+        <v>1.282E-2</v>
+      </c>
+      <c r="I4">
+        <v>17.66667</v>
+      </c>
+      <c r="J4">
+        <v>0.48869000000000001</v>
+      </c>
+      <c r="K4">
+        <v>542</v>
+      </c>
+      <c r="L4">
+        <v>792</v>
+      </c>
+      <c r="M4">
+        <v>0.31111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>246</v>
+      </c>
+      <c r="D5">
+        <v>0.50119999999999998</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>17.335999999999999</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>1.099E-2</v>
+      </c>
+      <c r="I5">
+        <v>15.79524</v>
+      </c>
+      <c r="J5">
+        <v>0.44118000000000002</v>
+      </c>
+      <c r="K5">
+        <v>104.66667</v>
+      </c>
+      <c r="L5">
+        <v>230</v>
+      </c>
+      <c r="M5">
+        <v>0.58333000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>246</v>
+      </c>
+      <c r="D6">
+        <v>0.50119999999999998</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>17.309999999999999</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1.099E-2</v>
+      </c>
+      <c r="I6">
+        <v>15.79524</v>
+      </c>
+      <c r="J6">
+        <v>0.44118000000000002</v>
+      </c>
+      <c r="K6">
+        <v>104.66667</v>
+      </c>
+      <c r="L6">
+        <v>230</v>
+      </c>
+      <c r="M6">
+        <v>0.58333000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>0.56838999999999995</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>14.439</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>1.282E-2</v>
+      </c>
+      <c r="I7">
+        <v>14.9</v>
+      </c>
+      <c r="J7">
+        <v>0.45474999999999999</v>
+      </c>
+      <c r="K7">
+        <v>378</v>
+      </c>
+      <c r="L7">
+        <v>476</v>
+      </c>
+      <c r="M7">
+        <v>0.42857000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>0.46345999999999998</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>16.681000000000001</v>
+      </c>
+      <c r="G8">
+        <v>35</v>
+      </c>
+      <c r="H8">
+        <v>1.538E-2</v>
+      </c>
+      <c r="I8">
+        <v>16.683330000000002</v>
+      </c>
+      <c r="J8">
+        <v>0.50905</v>
+      </c>
+      <c r="K8">
+        <v>632</v>
+      </c>
+      <c r="L8">
+        <v>832</v>
+      </c>
+      <c r="M8">
+        <v>0.23810000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>644</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>0.56838999999999995</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>13.602</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>1.099E-2</v>
+      </c>
+      <c r="I9">
+        <v>13.4381</v>
+      </c>
+      <c r="J9">
+        <v>0.40044999999999997</v>
+      </c>
+      <c r="K9">
+        <v>186</v>
+      </c>
+      <c r="L9">
+        <v>228</v>
+      </c>
+      <c r="M9">
+        <v>0.42857000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E406AB-3D08-4D2B-9805-E39765D08A03}">
   <dimension ref="A1:G138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="40.85546875" customWidth="1"/>
+    <col min="2" max="2" width="46.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C1" t="s">
@@ -2364,7 +3357,7 @@
       <c r="A2" t="s">
         <v>85</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C2">
@@ -2387,7 +3380,7 @@
       <c r="A3" t="s">
         <v>89</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C3">
@@ -2410,7 +3403,7 @@
       <c r="A4" t="s">
         <v>93</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C4">
@@ -2433,7 +3426,7 @@
       <c r="A5" t="s">
         <v>97</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C5">
@@ -2456,7 +3449,7 @@
       <c r="A6" t="s">
         <v>101</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C6">
@@ -2479,7 +3472,7 @@
       <c r="A7" t="s">
         <v>105</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C7">
@@ -2502,7 +3495,7 @@
       <c r="A8" t="s">
         <v>109</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C8">
@@ -2525,7 +3518,7 @@
       <c r="A9" t="s">
         <v>113</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>114</v>
       </c>
       <c r="C9">
@@ -2548,7 +3541,7 @@
       <c r="A10" t="s">
         <v>117</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C10">
@@ -2571,7 +3564,7 @@
       <c r="A11" t="s">
         <v>121</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C11">
@@ -2594,7 +3587,7 @@
       <c r="A12" t="s">
         <v>125</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>126</v>
       </c>
       <c r="C12">
@@ -2617,7 +3610,7 @@
       <c r="A13" t="s">
         <v>129</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>130</v>
       </c>
       <c r="C13">
@@ -2640,7 +3633,7 @@
       <c r="A14" t="s">
         <v>133</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>134</v>
       </c>
       <c r="C14">
@@ -2663,7 +3656,7 @@
       <c r="A15" t="s">
         <v>137</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>138</v>
       </c>
       <c r="C15">
@@ -2686,7 +3679,7 @@
       <c r="A16" t="s">
         <v>141</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>142</v>
       </c>
       <c r="C16">
@@ -2709,7 +3702,7 @@
       <c r="A17" t="s">
         <v>145</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C17">
@@ -2732,7 +3725,7 @@
       <c r="A18" t="s">
         <v>149</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C18">
@@ -2755,7 +3748,7 @@
       <c r="A19" t="s">
         <v>153</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C19">
@@ -2778,7 +3771,7 @@
       <c r="A20" t="s">
         <v>157</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>158</v>
       </c>
       <c r="C20">
@@ -2801,7 +3794,7 @@
       <c r="A21" t="s">
         <v>161</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>162</v>
       </c>
       <c r="C21">
@@ -2824,7 +3817,7 @@
       <c r="A22" t="s">
         <v>165</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>166</v>
       </c>
       <c r="C22">
@@ -2847,7 +3840,7 @@
       <c r="A23" t="s">
         <v>169</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C23">
@@ -2870,7 +3863,7 @@
       <c r="A24" t="s">
         <v>173</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>174</v>
       </c>
       <c r="C24">
@@ -2893,7 +3886,7 @@
       <c r="A25" t="s">
         <v>177</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>178</v>
       </c>
       <c r="C25">
@@ -2916,7 +3909,7 @@
       <c r="A26" t="s">
         <v>181</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>182</v>
       </c>
       <c r="C26">
@@ -2939,7 +3932,7 @@
       <c r="A27" t="s">
         <v>185</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>186</v>
       </c>
       <c r="C27">
@@ -2962,7 +3955,7 @@
       <c r="A28" t="s">
         <v>189</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>190</v>
       </c>
       <c r="C28">
@@ -2985,7 +3978,7 @@
       <c r="A29" t="s">
         <v>193</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>194</v>
       </c>
       <c r="C29">
@@ -3008,7 +4001,7 @@
       <c r="A30" t="s">
         <v>197</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>198</v>
       </c>
       <c r="C30">
@@ -3031,7 +4024,7 @@
       <c r="A31" t="s">
         <v>201</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>202</v>
       </c>
       <c r="C31">
@@ -3054,7 +4047,7 @@
       <c r="A32" t="s">
         <v>205</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>206</v>
       </c>
       <c r="C32">
@@ -3077,7 +4070,7 @@
       <c r="A33" t="s">
         <v>209</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>210</v>
       </c>
       <c r="C33">
@@ -3100,7 +4093,7 @@
       <c r="A34" t="s">
         <v>213</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>214</v>
       </c>
       <c r="C34">
@@ -3123,7 +4116,7 @@
       <c r="A35" t="s">
         <v>217</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>218</v>
       </c>
       <c r="C35">
@@ -3146,7 +4139,7 @@
       <c r="A36" t="s">
         <v>219</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>220</v>
       </c>
       <c r="C36">
@@ -3169,7 +4162,7 @@
       <c r="A37" t="s">
         <v>223</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C37">
@@ -3192,7 +4185,7 @@
       <c r="A38" t="s">
         <v>227</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C38">
@@ -3215,7 +4208,7 @@
       <c r="A39" t="s">
         <v>231</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="3" t="s">
         <v>232</v>
       </c>
       <c r="C39">
@@ -3238,7 +4231,7 @@
       <c r="A40" t="s">
         <v>235</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C40">
@@ -3261,7 +4254,7 @@
       <c r="A41" t="s">
         <v>239</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C41">
@@ -3284,7 +4277,7 @@
       <c r="A42" t="s">
         <v>243</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="3" t="s">
         <v>244</v>
       </c>
       <c r="C42">
@@ -3307,7 +4300,7 @@
       <c r="A43" t="s">
         <v>247</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>248</v>
       </c>
       <c r="C43">
@@ -3330,7 +4323,7 @@
       <c r="A44" t="s">
         <v>251</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="3" t="s">
         <v>252</v>
       </c>
       <c r="C44">
@@ -3353,7 +4346,7 @@
       <c r="A45" t="s">
         <v>255</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="3" t="s">
         <v>256</v>
       </c>
       <c r="C45">
@@ -3376,7 +4369,7 @@
       <c r="A46" t="s">
         <v>259</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="3" t="s">
         <v>260</v>
       </c>
       <c r="C46">
@@ -3399,7 +4392,7 @@
       <c r="A47" t="s">
         <v>263</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="3" t="s">
         <v>264</v>
       </c>
       <c r="C47">
@@ -3422,7 +4415,7 @@
       <c r="A48" t="s">
         <v>267</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="3" t="s">
         <v>268</v>
       </c>
       <c r="C48">
@@ -3445,7 +4438,7 @@
       <c r="A49" t="s">
         <v>271</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="3" t="s">
         <v>272</v>
       </c>
       <c r="C49">
@@ -3468,7 +4461,7 @@
       <c r="A50" t="s">
         <v>275</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="3" t="s">
         <v>276</v>
       </c>
       <c r="C50">
@@ -3491,7 +4484,7 @@
       <c r="A51" t="s">
         <v>279</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="3" t="s">
         <v>280</v>
       </c>
       <c r="C51">
@@ -3514,7 +4507,7 @@
       <c r="A52" t="s">
         <v>283</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="3" t="s">
         <v>284</v>
       </c>
       <c r="C52">
@@ -3537,7 +4530,7 @@
       <c r="A53" t="s">
         <v>287</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="3" t="s">
         <v>288</v>
       </c>
       <c r="C53">
@@ -3560,7 +4553,7 @@
       <c r="A54" t="s">
         <v>291</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="3" t="s">
         <v>292</v>
       </c>
       <c r="C54">
@@ -3583,7 +4576,7 @@
       <c r="A55" t="s">
         <v>295</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="3" t="s">
         <v>296</v>
       </c>
       <c r="C55">
@@ -3606,7 +4599,7 @@
       <c r="A56" t="s">
         <v>299</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="3" t="s">
         <v>300</v>
       </c>
       <c r="C56">
@@ -3629,7 +4622,7 @@
       <c r="A57" t="s">
         <v>303</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="3" t="s">
         <v>304</v>
       </c>
       <c r="C57">
@@ -3652,7 +4645,7 @@
       <c r="A58" t="s">
         <v>307</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="3" t="s">
         <v>308</v>
       </c>
       <c r="C58">
@@ -3675,7 +4668,7 @@
       <c r="A59" t="s">
         <v>311</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C59">
@@ -3698,7 +4691,7 @@
       <c r="A60" t="s">
         <v>315</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="3" t="s">
         <v>316</v>
       </c>
       <c r="C60">
@@ -3721,7 +4714,7 @@
       <c r="A61" t="s">
         <v>319</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="3" t="s">
         <v>320</v>
       </c>
       <c r="C61">
@@ -3744,7 +4737,7 @@
       <c r="A62" t="s">
         <v>323</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="3" t="s">
         <v>324</v>
       </c>
       <c r="C62">
@@ -3767,7 +4760,7 @@
       <c r="A63" t="s">
         <v>327</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="3" t="s">
         <v>328</v>
       </c>
       <c r="C63">
@@ -3790,7 +4783,7 @@
       <c r="A64" t="s">
         <v>331</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="3" t="s">
         <v>332</v>
       </c>
       <c r="C64">
@@ -3813,7 +4806,7 @@
       <c r="A65" t="s">
         <v>335</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="3" t="s">
         <v>336</v>
       </c>
       <c r="C65">
@@ -3836,7 +4829,7 @@
       <c r="A66" t="s">
         <v>339</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="3" t="s">
         <v>340</v>
       </c>
       <c r="C66">
@@ -3859,7 +4852,7 @@
       <c r="A67" t="s">
         <v>343</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="3" t="s">
         <v>344</v>
       </c>
       <c r="C67">
@@ -3882,7 +4875,7 @@
       <c r="A68" t="s">
         <v>347</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="3" t="s">
         <v>348</v>
       </c>
       <c r="C68">
@@ -3905,7 +4898,7 @@
       <c r="A69" t="s">
         <v>351</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="3" t="s">
         <v>352</v>
       </c>
       <c r="C69">
@@ -3928,7 +4921,7 @@
       <c r="A70" t="s">
         <v>355</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="3" t="s">
         <v>356</v>
       </c>
       <c r="C70">
@@ -3951,7 +4944,7 @@
       <c r="A71" t="s">
         <v>359</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="3" t="s">
         <v>360</v>
       </c>
       <c r="C71">
@@ -3974,7 +4967,7 @@
       <c r="A72" t="s">
         <v>363</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="3" t="s">
         <v>364</v>
       </c>
       <c r="C72">
@@ -3997,7 +4990,7 @@
       <c r="A73" t="s">
         <v>367</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="3" t="s">
         <v>368</v>
       </c>
       <c r="C73">
@@ -4020,7 +5013,7 @@
       <c r="A74" t="s">
         <v>371</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="3" t="s">
         <v>372</v>
       </c>
       <c r="C74">
@@ -4043,7 +5036,7 @@
       <c r="A75" t="s">
         <v>375</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="3" t="s">
         <v>376</v>
       </c>
       <c r="C75">
@@ -4066,7 +5059,7 @@
       <c r="A76" t="s">
         <v>379</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="3" t="s">
         <v>380</v>
       </c>
       <c r="C76">
@@ -4089,7 +5082,7 @@
       <c r="A77" t="s">
         <v>383</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="3" t="s">
         <v>384</v>
       </c>
       <c r="C77">
@@ -4112,7 +5105,7 @@
       <c r="A78" t="s">
         <v>387</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="3" t="s">
         <v>388</v>
       </c>
       <c r="C78">
@@ -4135,7 +5128,7 @@
       <c r="A79" t="s">
         <v>391</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="3" t="s">
         <v>392</v>
       </c>
       <c r="C79">
@@ -4158,7 +5151,7 @@
       <c r="A80" t="s">
         <v>395</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="3" t="s">
         <v>396</v>
       </c>
       <c r="C80">
@@ -4181,7 +5174,7 @@
       <c r="A81" t="s">
         <v>399</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="3" t="s">
         <v>400</v>
       </c>
       <c r="C81">
@@ -4204,7 +5197,7 @@
       <c r="A82" t="s">
         <v>403</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="3" t="s">
         <v>404</v>
       </c>
       <c r="C82">
@@ -4227,7 +5220,7 @@
       <c r="A83" t="s">
         <v>407</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="3" t="s">
         <v>408</v>
       </c>
       <c r="C83">
@@ -4250,7 +5243,7 @@
       <c r="A84" t="s">
         <v>411</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="3" t="s">
         <v>412</v>
       </c>
       <c r="C84">
@@ -4273,7 +5266,7 @@
       <c r="A85" t="s">
         <v>415</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="3" t="s">
         <v>416</v>
       </c>
       <c r="C85">
@@ -4296,7 +5289,7 @@
       <c r="A86" t="s">
         <v>419</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="3" t="s">
         <v>420</v>
       </c>
       <c r="C86">
@@ -4319,7 +5312,7 @@
       <c r="A87" t="s">
         <v>423</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="3" t="s">
         <v>424</v>
       </c>
       <c r="C87">
@@ -4342,7 +5335,7 @@
       <c r="A88" t="s">
         <v>427</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="3" t="s">
         <v>428</v>
       </c>
       <c r="C88">
@@ -4365,7 +5358,7 @@
       <c r="A89" t="s">
         <v>431</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="3" t="s">
         <v>432</v>
       </c>
       <c r="C89">
@@ -4388,7 +5381,7 @@
       <c r="A90" t="s">
         <v>435</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="3" t="s">
         <v>436</v>
       </c>
       <c r="C90">
@@ -4411,7 +5404,7 @@
       <c r="A91" t="s">
         <v>439</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="3" t="s">
         <v>440</v>
       </c>
       <c r="C91">
@@ -4434,7 +5427,7 @@
       <c r="A92" t="s">
         <v>443</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="3" t="s">
         <v>444</v>
       </c>
       <c r="C92">
@@ -4457,7 +5450,7 @@
       <c r="A93" t="s">
         <v>447</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="3" t="s">
         <v>448</v>
       </c>
       <c r="C93">
@@ -4480,7 +5473,7 @@
       <c r="A94" t="s">
         <v>451</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="3" t="s">
         <v>452</v>
       </c>
       <c r="C94">
@@ -4503,7 +5496,7 @@
       <c r="A95" t="s">
         <v>455</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="3" t="s">
         <v>456</v>
       </c>
       <c r="C95">
@@ -4526,7 +5519,7 @@
       <c r="A96" t="s">
         <v>459</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="3" t="s">
         <v>460</v>
       </c>
       <c r="C96">
@@ -4549,7 +5542,7 @@
       <c r="A97" t="s">
         <v>463</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="3" t="s">
         <v>464</v>
       </c>
       <c r="C97">
@@ -4572,7 +5565,7 @@
       <c r="A98" t="s">
         <v>467</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="3" t="s">
         <v>468</v>
       </c>
       <c r="C98">
@@ -4595,7 +5588,7 @@
       <c r="A99" t="s">
         <v>471</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="3" t="s">
         <v>472</v>
       </c>
       <c r="C99">
@@ -4618,7 +5611,7 @@
       <c r="A100" t="s">
         <v>475</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="3" t="s">
         <v>476</v>
       </c>
       <c r="C100">
@@ -4641,7 +5634,7 @@
       <c r="A101" t="s">
         <v>479</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="3" t="s">
         <v>480</v>
       </c>
       <c r="C101">
@@ -4664,7 +5657,7 @@
       <c r="A102" t="s">
         <v>483</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="3" t="s">
         <v>484</v>
       </c>
       <c r="C102">
@@ -4687,7 +5680,7 @@
       <c r="A103" t="s">
         <v>487</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="3" t="s">
         <v>488</v>
       </c>
       <c r="C103">
@@ -4710,7 +5703,7 @@
       <c r="A104" t="s">
         <v>491</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="3" t="s">
         <v>492</v>
       </c>
       <c r="C104">
@@ -4733,7 +5726,7 @@
       <c r="A105" t="s">
         <v>495</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="3" t="s">
         <v>496</v>
       </c>
       <c r="C105">
@@ -4756,7 +5749,7 @@
       <c r="A106" t="s">
         <v>499</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="3" t="s">
         <v>500</v>
       </c>
       <c r="C106">
@@ -4779,7 +5772,7 @@
       <c r="A107" t="s">
         <v>503</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="3" t="s">
         <v>504</v>
       </c>
       <c r="C107">
@@ -4802,7 +5795,7 @@
       <c r="A108" t="s">
         <v>507</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="3" t="s">
         <v>508</v>
       </c>
       <c r="C108">
@@ -4825,7 +5818,7 @@
       <c r="A109" t="s">
         <v>511</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="3" t="s">
         <v>512</v>
       </c>
       <c r="C109">
@@ -4848,7 +5841,7 @@
       <c r="A110" t="s">
         <v>515</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="3" t="s">
         <v>516</v>
       </c>
       <c r="C110">
@@ -4871,7 +5864,7 @@
       <c r="A111" t="s">
         <v>519</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="3" t="s">
         <v>520</v>
       </c>
       <c r="C111">
@@ -4894,7 +5887,7 @@
       <c r="A112" t="s">
         <v>523</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="3" t="s">
         <v>524</v>
       </c>
       <c r="C112">
@@ -4917,7 +5910,7 @@
       <c r="A113" t="s">
         <v>527</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="3" t="s">
         <v>528</v>
       </c>
       <c r="C113">
@@ -4940,7 +5933,7 @@
       <c r="A114" t="s">
         <v>531</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="3" t="s">
         <v>532</v>
       </c>
       <c r="C114">
@@ -4963,7 +5956,7 @@
       <c r="A115" t="s">
         <v>535</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="3" t="s">
         <v>536</v>
       </c>
       <c r="C115">
@@ -4986,7 +5979,7 @@
       <c r="A116" t="s">
         <v>539</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="3" t="s">
         <v>540</v>
       </c>
       <c r="C116">
@@ -5009,7 +6002,7 @@
       <c r="A117" t="s">
         <v>543</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="3" t="s">
         <v>544</v>
       </c>
       <c r="C117">
@@ -5032,7 +6025,7 @@
       <c r="A118" t="s">
         <v>547</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="3" t="s">
         <v>548</v>
       </c>
       <c r="C118">
@@ -5055,7 +6048,7 @@
       <c r="A119" t="s">
         <v>551</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="3" t="s">
         <v>552</v>
       </c>
       <c r="C119">
@@ -5078,7 +6071,7 @@
       <c r="A120" t="s">
         <v>555</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="3" t="s">
         <v>556</v>
       </c>
       <c r="C120">
@@ -5101,7 +6094,7 @@
       <c r="A121" t="s">
         <v>559</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="3" t="s">
         <v>560</v>
       </c>
       <c r="C121">
@@ -5124,7 +6117,7 @@
       <c r="A122" t="s">
         <v>563</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="3" t="s">
         <v>564</v>
       </c>
       <c r="C122">
@@ -5147,7 +6140,7 @@
       <c r="A123" t="s">
         <v>567</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="3" t="s">
         <v>568</v>
       </c>
       <c r="C123">
@@ -5170,7 +6163,7 @@
       <c r="A124" t="s">
         <v>571</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="3" t="s">
         <v>572</v>
       </c>
       <c r="C124">
@@ -5193,7 +6186,7 @@
       <c r="A125" t="s">
         <v>575</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="3" t="s">
         <v>576</v>
       </c>
       <c r="C125">
@@ -5216,7 +6209,7 @@
       <c r="A126" t="s">
         <v>579</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="3" t="s">
         <v>580</v>
       </c>
       <c r="C126">
@@ -5239,7 +6232,7 @@
       <c r="A127" t="s">
         <v>583</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="3" t="s">
         <v>584</v>
       </c>
       <c r="C127">
@@ -5262,7 +6255,7 @@
       <c r="A128" t="s">
         <v>587</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="3" t="s">
         <v>588</v>
       </c>
       <c r="C128">
@@ -5285,7 +6278,7 @@
       <c r="A129" t="s">
         <v>591</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="3" t="s">
         <v>592</v>
       </c>
       <c r="C129">
@@ -5308,7 +6301,7 @@
       <c r="A130" t="s">
         <v>595</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="3" t="s">
         <v>596</v>
       </c>
       <c r="C130">
@@ -5331,7 +6324,7 @@
       <c r="A131" t="s">
         <v>599</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="3" t="s">
         <v>600</v>
       </c>
       <c r="C131">
@@ -5354,7 +6347,7 @@
       <c r="A132" t="s">
         <v>603</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="3" t="s">
         <v>604</v>
       </c>
       <c r="C132">
@@ -5377,7 +6370,7 @@
       <c r="A133" t="s">
         <v>607</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="3" t="s">
         <v>608</v>
       </c>
       <c r="C133">
@@ -5400,7 +6393,7 @@
       <c r="A134" t="s">
         <v>611</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="3" t="s">
         <v>612</v>
       </c>
       <c r="C134">
@@ -5423,7 +6416,7 @@
       <c r="A135" t="s">
         <v>615</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="3" t="s">
         <v>616</v>
       </c>
       <c r="C135">
@@ -5446,7 +6439,7 @@
       <c r="A136" t="s">
         <v>619</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="3" t="s">
         <v>620</v>
       </c>
       <c r="C136">
@@ -5469,7 +6462,7 @@
       <c r="A137" t="s">
         <v>623</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="3" t="s">
         <v>624</v>
       </c>
       <c r="C137">
@@ -5492,7 +6485,7 @@
       <c r="A138" t="s">
         <v>627</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="3" t="s">
         <v>628</v>
       </c>
       <c r="C138">
@@ -5516,7 +6509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C12DC5C-BBD1-49B3-9125-F00C10764377}">
   <dimension ref="A1:G16"/>
   <sheetViews>
@@ -5900,11 +6893,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C9D811-E226-48CD-BE2E-20BB920AE15D}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -6010,410 +7003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3512BC-1B36-485C-9B17-7AC116261F2F}">
-  <dimension ref="A1:M9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>633</v>
-      </c>
-      <c r="B1" t="s">
-        <v>631</v>
-      </c>
-      <c r="C1" t="s">
-        <v>632</v>
-      </c>
-      <c r="D1" t="s">
-        <v>634</v>
-      </c>
-      <c r="E1" t="s">
-        <v>635</v>
-      </c>
-      <c r="F1" t="s">
-        <v>636</v>
-      </c>
-      <c r="G1" t="s">
-        <v>637</v>
-      </c>
-      <c r="H1" t="s">
-        <v>638</v>
-      </c>
-      <c r="I1" t="s">
-        <v>639</v>
-      </c>
-      <c r="J1" t="s">
-        <v>640</v>
-      </c>
-      <c r="K1" t="s">
-        <v>641</v>
-      </c>
-      <c r="L1" t="s">
-        <v>642</v>
-      </c>
-      <c r="M1" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>20</v>
-      </c>
-      <c r="C2">
-        <v>45</v>
-      </c>
-      <c r="D2">
-        <v>0.32412999999999997</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>18.361000000000001</v>
-      </c>
-      <c r="G2">
-        <v>28</v>
-      </c>
-      <c r="H2">
-        <v>3.0769999999999999E-2</v>
-      </c>
-      <c r="I2">
-        <v>23.5</v>
-      </c>
-      <c r="J2">
-        <v>0.17777999999999999</v>
-      </c>
-      <c r="K2">
-        <v>576.83333000000005</v>
-      </c>
-      <c r="L2">
-        <v>682</v>
-      </c>
-      <c r="M2">
-        <v>7.3679999999999995E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>644</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>22</v>
-      </c>
-      <c r="D3">
-        <v>0.38895999999999997</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>17.359000000000002</v>
-      </c>
-      <c r="G3">
-        <v>7</v>
-      </c>
-      <c r="H3">
-        <v>3.0769999999999999E-2</v>
-      </c>
-      <c r="I3">
-        <v>18.5</v>
-      </c>
-      <c r="J3">
-        <v>0.15498999999999999</v>
-      </c>
-      <c r="K3">
-        <v>263.83332999999999</v>
-      </c>
-      <c r="L3">
-        <v>316</v>
-      </c>
-      <c r="M3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>128</v>
-      </c>
-      <c r="D4">
-        <v>0.64825999999999995</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>17.427</v>
-      </c>
-      <c r="G4">
-        <v>35</v>
-      </c>
-      <c r="H4">
-        <v>1.282E-2</v>
-      </c>
-      <c r="I4">
-        <v>17.66667</v>
-      </c>
-      <c r="J4">
-        <v>0.48869000000000001</v>
-      </c>
-      <c r="K4">
-        <v>542</v>
-      </c>
-      <c r="L4">
-        <v>792</v>
-      </c>
-      <c r="M4">
-        <v>0.31111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>246</v>
-      </c>
-      <c r="D5">
-        <v>0.50119999999999998</v>
-      </c>
-      <c r="E5">
-        <v>9</v>
-      </c>
-      <c r="F5">
-        <v>17.335999999999999</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="H5">
-        <v>1.099E-2</v>
-      </c>
-      <c r="I5">
-        <v>15.79524</v>
-      </c>
-      <c r="J5">
-        <v>0.44118000000000002</v>
-      </c>
-      <c r="K5">
-        <v>104.66667</v>
-      </c>
-      <c r="L5">
-        <v>230</v>
-      </c>
-      <c r="M5">
-        <v>0.58333000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>246</v>
-      </c>
-      <c r="D6">
-        <v>0.50119999999999998</v>
-      </c>
-      <c r="E6">
-        <v>9</v>
-      </c>
-      <c r="F6">
-        <v>17.309999999999999</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1.099E-2</v>
-      </c>
-      <c r="I6">
-        <v>15.79524</v>
-      </c>
-      <c r="J6">
-        <v>0.44118000000000002</v>
-      </c>
-      <c r="K6">
-        <v>104.66667</v>
-      </c>
-      <c r="L6">
-        <v>230</v>
-      </c>
-      <c r="M6">
-        <v>0.58333000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>30</v>
-      </c>
-      <c r="D7">
-        <v>0.56838999999999995</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>14.439</v>
-      </c>
-      <c r="G7">
-        <v>8</v>
-      </c>
-      <c r="H7">
-        <v>1.282E-2</v>
-      </c>
-      <c r="I7">
-        <v>14.9</v>
-      </c>
-      <c r="J7">
-        <v>0.45474999999999999</v>
-      </c>
-      <c r="K7">
-        <v>378</v>
-      </c>
-      <c r="L7">
-        <v>476</v>
-      </c>
-      <c r="M7">
-        <v>0.42857000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>0.46345999999999998</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>16.681000000000001</v>
-      </c>
-      <c r="G8">
-        <v>35</v>
-      </c>
-      <c r="H8">
-        <v>1.538E-2</v>
-      </c>
-      <c r="I8">
-        <v>16.683330000000002</v>
-      </c>
-      <c r="J8">
-        <v>0.50905</v>
-      </c>
-      <c r="K8">
-        <v>632</v>
-      </c>
-      <c r="L8">
-        <v>832</v>
-      </c>
-      <c r="M8">
-        <v>0.23810000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>645</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>30</v>
-      </c>
-      <c r="D9">
-        <v>0.56838999999999995</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>13.602</v>
-      </c>
-      <c r="G9">
-        <v>4</v>
-      </c>
-      <c r="H9">
-        <v>1.099E-2</v>
-      </c>
-      <c r="I9">
-        <v>13.4381</v>
-      </c>
-      <c r="J9">
-        <v>0.40044999999999997</v>
-      </c>
-      <c r="K9">
-        <v>186</v>
-      </c>
-      <c r="L9">
-        <v>228</v>
-      </c>
-      <c r="M9">
-        <v>0.42857000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004AA4B42D326EED47845E91DDE972D891" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ec1093aa85238b40bfd91fdabbad45d2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="93d5dc8f-ad47-41c4-ba0f-ecac85b3dc47" xmlns:ns4="76fd4a74-22af-4879-baf6-225bf07c6ecb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e38b8b9007af2bebaea17b8a5e123dee" ns3:_="" ns4:_="">
     <xsd:import namespace="93d5dc8f-ad47-41c4-ba0f-ecac85b3dc47"/>
@@ -6636,24 +7226,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F091F67-AAC4-4440-849A-9F4A534865AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{322043FE-513E-4D2F-9E09-F947B0682F59}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E04CB50B-E335-473E-AF60-5AE212BFA2DF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6670,4 +7258,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F091F67-AAC4-4440-849A-9F4A534865AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{322043FE-513E-4D2F-9E09-F947B0682F59}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>